--- a/documents/sprint/Sprint_Review_Protocol_Loot_Ledger_3.xlsx
+++ b/documents/sprint/Sprint_Review_Protocol_Loot_Ledger_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\itp-project\ITP-DnD-Itembar\documents\sprint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2763A3-646C-4A48-9125-AA87A044655C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FECE1B-DA2A-43D6-B548-72F815433193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Sprint Review Protocol</t>
   </si>
@@ -135,6 +135,12 @@
   </si>
   <si>
     <t>Profil bearbeiten</t>
+  </si>
+  <si>
+    <t>not finished</t>
+  </si>
+  <si>
+    <t>not finished/ Pair Programming</t>
   </si>
 </sst>
 </file>
@@ -765,7 +771,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1004,11 +1010,11 @@
         <v>8</v>
       </c>
       <c r="D17" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F17" s="3">
         <v>1</v>
@@ -1027,11 +1033,11 @@
         <v>8</v>
       </c>
       <c r="D18" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>1</v>
@@ -1049,14 +1055,20 @@
       <c r="C19" s="7">
         <v>10</v>
       </c>
-      <c r="D19" s="7"/>
+      <c r="D19" s="7">
+        <v>8</v>
+      </c>
       <c r="E19" s="2">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>-2</v>
       </c>
       <c r="F19" s="3"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="7"/>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
@@ -1068,14 +1080,20 @@
       <c r="C20" s="7">
         <v>15</v>
       </c>
-      <c r="D20" s="7"/>
+      <c r="D20" s="7">
+        <v>10</v>
+      </c>
       <c r="E20" s="2">
         <f t="shared" si="0"/>
-        <v>-15</v>
+        <v>-5</v>
       </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="7"/>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
@@ -1087,14 +1105,20 @@
       <c r="C21" s="7">
         <v>10</v>
       </c>
-      <c r="D21" s="7"/>
+      <c r="D21" s="7">
+        <v>0</v>
+      </c>
       <c r="E21" s="2">
         <f t="shared" si="0"/>
         <v>-10</v>
       </c>
       <c r="F21" s="3"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="7"/>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
@@ -1106,14 +1130,20 @@
       <c r="C22" s="7">
         <v>5</v>
       </c>
-      <c r="D22" s="7"/>
+      <c r="D22" s="7">
+        <v>4</v>
+      </c>
       <c r="E22" s="2">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="7"/>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
@@ -1152,7 +1182,7 @@
       <c r="D26" s="6"/>
       <c r="E26" s="6">
         <f>SUM(E16:E25)</f>
-        <v>-47</v>
+        <v>-21</v>
       </c>
       <c r="F26" s="6">
         <f>COUNT(F16:F25)</f>
@@ -1160,7 +1190,7 @@
       </c>
       <c r="G26" s="6">
         <f>COUNT(G16:G25)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H26" s="6"/>
     </row>
